--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B2A1BF-2489-3747-A958-1B34F14E46EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E82C91-D4AB-B841-9078-FE2CA00B34B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -132,93 +132,43 @@
       <sheetData sheetId="5">
         <row r="5">
           <cell r="B5">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="C5" t="str">
-            <v>DCT-bazzo</v>
+            <v>Pennysss71</v>
           </cell>
           <cell r="D5" t="str">
-            <v>Mister Bazzo</v>
+            <v>D.Apicella</v>
           </cell>
           <cell r="E5" t="str">
-            <v xml:space="preserve">10 secondi </v>
+            <v>10"</v>
           </cell>
           <cell r="F5">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="G5" t="str">
-            <v>Per il contatto alla curva 10 del giro 22</v>
+            <v>Per il contatto alla curva 15 del giro 23</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
+            <v>4</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Dani_CT1946</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Danict1946</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>10"</v>
+          </cell>
+          <cell r="F6">
             <v>1</v>
           </cell>
-          <cell r="C6" t="str">
-            <v>Stefanostefanof</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>CSC_stefano</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>0 punti in gara 3 e partenza in fondo alla griglia in gara 4</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>-</v>
-          </cell>
           <cell r="G6" t="str">
-            <v>Per aver causato i vari contatti alla curva 1 del giro 1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>2</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>freshofthezone</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Frescodizona</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v xml:space="preserve">10 secondi </v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>Per il contatto alla curva 1 del giro 5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8"/>
-          <cell r="E8"/>
-          <cell r="F8"/>
-          <cell r="G8"/>
-        </row>
-        <row r="9">
-          <cell r="B9"/>
-          <cell r="E9"/>
-          <cell r="F9"/>
-          <cell r="G9"/>
-        </row>
-        <row r="10">
-          <cell r="B10"/>
-          <cell r="E10"/>
-          <cell r="F10"/>
-          <cell r="G10"/>
-        </row>
-        <row r="11">
-          <cell r="B11"/>
-          <cell r="E11"/>
-          <cell r="F11"/>
-          <cell r="G11"/>
-        </row>
-        <row r="12">
-          <cell r="B12"/>
-          <cell r="E12"/>
-          <cell r="F12"/>
-          <cell r="G12"/>
+            <v>Per il contatto alla curva 12 del giro 15</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
@@ -547,7 +497,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,67 +525,63 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!C5),"/ ",IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!D5))</f>
-        <v>DCT-bazzo/ Mister Bazzo</v>
+        <v>Pennysss71/ D.Apicella</v>
       </c>
       <c r="C2" t="str">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!E5)</f>
-        <v xml:space="preserve">10 secondi </v>
+        <v>10"</v>
       </c>
       <c r="D2">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!F5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <f>IF([1]Provvedimenti!G5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Per il contatto alla curva 10 del giro 22</v>
+        <v>Per il contatto alla curva 15 del giro 23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>IF([1]Provvedimenti!B6=0,"",[1]Provvedimenti!B6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(IF([1]Provvedimenti!C6=0,"",[1]Provvedimenti!C6),"/ ",IF([1]Provvedimenti!D6=0,"",[1]Provvedimenti!D6))</f>
-        <v>Stefanostefanof/ CSC_stefano</v>
+        <v>Dani_CT1946/ Danict1946</v>
       </c>
       <c r="C3" t="str">
         <f>IF([1]Provvedimenti!E6=0,"",[1]Provvedimenti!E6)</f>
-        <v>0 punti in gara 3 e partenza in fondo alla griglia in gara 4</v>
-      </c>
-      <c r="D3" t="str">
+        <v>10"</v>
+      </c>
+      <c r="D3">
         <f>IF([1]Provvedimenti!F6=0,"",[1]Provvedimenti!F6)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <f>IF([1]Provvedimenti!G6=0,"",[1]Provvedimenti!G6)</f>
-        <v>Per aver causato i vari contatti alla curva 1 del giro 1</v>
+        <v>Per il contatto alla curva 12 del giro 15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>IF([1]Provvedimenti!B7=0,"",[1]Provvedimenti!B7)</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f>CONCATENATE(IF([1]Provvedimenti!C7=0,"",[1]Provvedimenti!C7),"/ ",IF([1]Provvedimenti!D7=0,"",[1]Provvedimenti!D7))</f>
-        <v>freshofthezone/ Frescodizona</v>
+        <v/>
       </c>
       <c r="C4" t="str">
         <f>IF([1]Provvedimenti!E7=0,"",[1]Provvedimenti!E7)</f>
-        <v xml:space="preserve">10 secondi </v>
+        <v/>
       </c>
       <c r="D4" t="str">
         <f>IF([1]Provvedimenti!F7=0,"",[1]Provvedimenti!F7)</f>
-        <v>-</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f>IF([1]Provvedimenti!G7=0,"",[1]Provvedimenti!G7)</f>
-        <v>Per il contatto alla curva 1 del giro 5</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E82C91-D4AB-B841-9078-FE2CA00B34B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9EE01-93F7-004B-A09B-545AD28B0433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -132,43 +132,41 @@
       <sheetData sheetId="5">
         <row r="5">
           <cell r="B5">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>Pennysss71</v>
+            <v>TLM_Sicily22</v>
           </cell>
           <cell r="D5" t="str">
-            <v>D.Apicella</v>
+            <v>M.Di Bartolo</v>
           </cell>
           <cell r="E5" t="str">
-            <v>10"</v>
+            <v>15"</v>
           </cell>
-          <cell r="F5">
-            <v>3</v>
+          <cell r="F5" t="str">
+            <v>Ø</v>
           </cell>
           <cell r="G5" t="str">
-            <v>Per il contatto alla curva 15 del giro 23</v>
+            <v>Per il contatto alla curva 1 del giro 3</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="B6">
-            <v>4</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Dani_CT1946</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Danict1946</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>10"</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>Per il contatto alla curva 12 del giro 15</v>
-          </cell>
+        <row r="10">
+          <cell r="B10"/>
+          <cell r="E10"/>
+          <cell r="F10"/>
+          <cell r="G10"/>
+        </row>
+        <row r="11">
+          <cell r="B11"/>
+          <cell r="E11"/>
+          <cell r="F11"/>
+          <cell r="G11"/>
+        </row>
+        <row r="12">
+          <cell r="B12"/>
+          <cell r="E12"/>
+          <cell r="F12"/>
+          <cell r="G12"/>
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
@@ -497,7 +495,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,99 +523,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!C5),"/ ",IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!D5))</f>
-        <v>Pennysss71/ D.Apicella</v>
+        <v>TLM_Sicily22/ M.Di Bartolo</v>
       </c>
       <c r="C2" t="str">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!E5)</f>
-        <v>10"</v>
-      </c>
-      <c r="D2">
+        <v>15"</v>
+      </c>
+      <c r="D2" t="str">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!F5)</f>
-        <v>3</v>
+        <v>Ø</v>
       </c>
       <c r="E2" t="str">
         <f>IF([1]Provvedimenti!G5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Per il contatto alla curva 15 del giro 23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>IF([1]Provvedimenti!B6=0,"",[1]Provvedimenti!B6)</f>
-        <v>4</v>
-      </c>
-      <c r="B3" t="str">
-        <f>CONCATENATE(IF([1]Provvedimenti!C6=0,"",[1]Provvedimenti!C6),"/ ",IF([1]Provvedimenti!D6=0,"",[1]Provvedimenti!D6))</f>
-        <v>Dani_CT1946/ Danict1946</v>
-      </c>
-      <c r="C3" t="str">
-        <f>IF([1]Provvedimenti!E6=0,"",[1]Provvedimenti!E6)</f>
-        <v>10"</v>
-      </c>
-      <c r="D3">
-        <f>IF([1]Provvedimenti!F6=0,"",[1]Provvedimenti!F6)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <f>IF([1]Provvedimenti!G6=0,"",[1]Provvedimenti!G6)</f>
-        <v>Per il contatto alla curva 12 del giro 15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>IF([1]Provvedimenti!B7=0,"",[1]Provvedimenti!B7)</f>
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <f>IF([1]Provvedimenti!E7=0,"",[1]Provvedimenti!E7)</f>
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <f>IF([1]Provvedimenti!F7=0,"",[1]Provvedimenti!F7)</f>
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <f>IF([1]Provvedimenti!G7=0,"",[1]Provvedimenti!G7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f>IF([1]Provvedimenti!B8=0,"",[1]Provvedimenti!B8)</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <f>IF([1]Provvedimenti!E8=0,"",[1]Provvedimenti!E8)</f>
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <f>IF([1]Provvedimenti!F8=0,"",[1]Provvedimenti!F8)</f>
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <f>IF([1]Provvedimenti!G8=0,"",[1]Provvedimenti!G8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f>IF([1]Provvedimenti!B9=0,"",[1]Provvedimenti!B9)</f>
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <f>IF([1]Provvedimenti!E9=0,"",[1]Provvedimenti!E9)</f>
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <f>IF([1]Provvedimenti!F9=0,"",[1]Provvedimenti!F9)</f>
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <f>IF([1]Provvedimenti!G9=0,"",[1]Provvedimenti!G9)</f>
-        <v/>
+        <v>Per il contatto alla curva 1 del giro 3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9EE01-93F7-004B-A09B-545AD28B0433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538CFA3-01FD-514A-9871-08405F3A0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -129,46 +129,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="5">
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>TLM_Sicily22</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>M.Di Bartolo</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>15"</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>Ø</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Per il contatto alla curva 1 del giro 3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10"/>
-          <cell r="E10"/>
-          <cell r="F10"/>
-          <cell r="G10"/>
-        </row>
-        <row r="11">
-          <cell r="B11"/>
-          <cell r="E11"/>
-          <cell r="F11"/>
-          <cell r="G11"/>
-        </row>
-        <row r="12">
-          <cell r="B12"/>
-          <cell r="E12"/>
-          <cell r="F12"/>
-          <cell r="G12"/>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
@@ -495,7 +456,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,25 +482,25 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE(IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!C5),"/ ",IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!D5))</f>
-        <v>TLM_Sicily22/ M.Di Bartolo</v>
+        <f>CONCATENATE(IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!C5)," / ",IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!D5))</f>
+        <v xml:space="preserve"> / </v>
       </c>
       <c r="C2" t="str">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!E5)</f>
-        <v>15"</v>
+        <v/>
       </c>
       <c r="D2" t="str">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!F5)</f>
-        <v>Ø</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <f>IF([1]Provvedimenti!G5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Per il contatto alla curva 1 del giro 3</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/backend/penalita/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538CFA3-01FD-514A-9871-08405F3A0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609BAAE1-AD67-7A49-B3FD-AAAF0B7C383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
+    <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="penalita" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>motiv</t>
   </si>
   <si>
-    <t>id_psngt7</t>
+    <t>id_gt7</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBEEC75-FA76-814D-B019-B41F121C7C99}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,79 +482,91 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <f>CONCATENATE(IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!C5)," / ",IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!D5))</f>
-        <v xml:space="preserve"> / </v>
-      </c>
-      <c r="C2" t="str">
-        <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!E5)</f>
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!F5)</f>
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <f>IF([1]Provvedimenti!G5=0,"",[1]Provvedimenti!G5)</f>
-        <v/>
+      <c r="A2">
+        <f>[1]Provvedimenti!B5</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>[1]Provvedimenti!D5</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>[1]Provvedimenti!E5</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>[1]Provvedimenti!F5</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>[1]Provvedimenti!G5</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f>IF([1]Provvedimenti!B10=0,"",[1]Provvedimenti!B10)</f>
-        <v/>
-      </c>
-      <c r="C7" t="str">
-        <f>IF([1]Provvedimenti!E10=0,"",[1]Provvedimenti!E10)</f>
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <f>IF([1]Provvedimenti!F10=0,"",[1]Provvedimenti!F10)</f>
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <f>IF([1]Provvedimenti!G10=0,"",[1]Provvedimenti!G10)</f>
-        <v/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>[1]Provvedimenti!B6</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>[1]Provvedimenti!D6</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>[1]Provvedimenti!E6</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>[1]Provvedimenti!F6</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>[1]Provvedimenti!G6</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f>IF([1]Provvedimenti!B11=0,"",[1]Provvedimenti!B11)</f>
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <f>IF([1]Provvedimenti!E11=0,"",[1]Provvedimenti!E11)</f>
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <f>IF([1]Provvedimenti!F11=0,"",[1]Provvedimenti!F11)</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <f>IF([1]Provvedimenti!G11=0,"",[1]Provvedimenti!G11)</f>
-        <v/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>[1]Provvedimenti!B7</f>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>[1]Provvedimenti!D7</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>[1]Provvedimenti!E7</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>[1]Provvedimenti!F7</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>[1]Provvedimenti!G7</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f>IF([1]Provvedimenti!B12=0,"",[1]Provvedimenti!B12)</f>
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <f>IF([1]Provvedimenti!E12=0,"",[1]Provvedimenti!E12)</f>
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <f>IF([1]Provvedimenti!F12=0,"",[1]Provvedimenti!F12)</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <f>IF([1]Provvedimenti!G12=0,"",[1]Provvedimenti!G12)</f>
-        <v/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>[1]Provvedimenti!B8</f>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>[1]Provvedimenti!D8</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>[1]Provvedimenti!E8</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>[1]Provvedimenti!F8</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>[1]Provvedimenti!G8</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609BAAE1-AD67-7A49-B3FD-AAAF0B7C383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795B85E-29BD-6D4B-B9F1-CC5F6496CBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -69,12 +69,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -119,6 +126,8 @@
       <sheetName val="nomi"/>
       <sheetName val="CLASSIFICA ORDINATA"/>
       <sheetName val="PER STAMPA"/>
+      <sheetName val="RISULTATI"/>
+      <sheetName val="XSRESULTS"/>
       <sheetName val="LOBBY"/>
       <sheetName val="Provvedimenti"/>
       <sheetName val="RISULTATI  GARA 3 "/>
@@ -131,6 +140,37 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="5">
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+        </row>
+        <row r="6">
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+        </row>
+        <row r="7">
+          <cell r="B7"/>
+          <cell r="C7"/>
+          <cell r="D7"/>
+          <cell r="E7"/>
+          <cell r="F7"/>
+        </row>
+        <row r="8">
+          <cell r="B8"/>
+          <cell r="C8"/>
+          <cell r="D8"/>
+          <cell r="E8"/>
+          <cell r="F8"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -456,7 +496,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,91 +522,91 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>[1]Provvedimenti!B5</f>
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>[1]Provvedimenti!D5</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>[1]Provvedimenti!E5</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>[1]Provvedimenti!F5</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>[1]Provvedimenti!G5</f>
-        <v>0</v>
+      <c r="A2" s="1" t="str">
+        <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5=0)</f>
+        <v/>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!C5=0)</f>
+        <v/>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!D5=0)</f>
+        <v/>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!E5=0)</f>
+        <v/>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!F5=0)</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>[1]Provvedimenti!B6</f>
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f>[1]Provvedimenti!D6</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>[1]Provvedimenti!E6</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>[1]Provvedimenti!F6</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>[1]Provvedimenti!G6</f>
-        <v>0</v>
+      <c r="A3" s="1" t="str">
+        <f>IF([1]Provvedimenti!B6=0,"",[1]Provvedimenti!B6=0)</f>
+        <v/>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>IF([1]Provvedimenti!C6=0,"",[1]Provvedimenti!C6=0)</f>
+        <v/>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>IF([1]Provvedimenti!D6=0,"",[1]Provvedimenti!D6=0)</f>
+        <v/>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>IF([1]Provvedimenti!E6=0,"",[1]Provvedimenti!E6=0)</f>
+        <v/>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF([1]Provvedimenti!F6=0,"",[1]Provvedimenti!F6=0)</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>[1]Provvedimenti!B7</f>
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f>[1]Provvedimenti!D7</f>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f>[1]Provvedimenti!E7</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>[1]Provvedimenti!F7</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>[1]Provvedimenti!G7</f>
-        <v>0</v>
+      <c r="A4" s="1" t="str">
+        <f>IF([1]Provvedimenti!B7=0,"",[1]Provvedimenti!B7=0)</f>
+        <v/>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>IF([1]Provvedimenti!C7=0,"",[1]Provvedimenti!C7=0)</f>
+        <v/>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>IF([1]Provvedimenti!D7=0,"",[1]Provvedimenti!D7=0)</f>
+        <v/>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>IF([1]Provvedimenti!E7=0,"",[1]Provvedimenti!E7=0)</f>
+        <v/>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF([1]Provvedimenti!F7=0,"",[1]Provvedimenti!F7=0)</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f>[1]Provvedimenti!B8</f>
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <f>[1]Provvedimenti!D8</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>[1]Provvedimenti!E8</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>[1]Provvedimenti!F8</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>[1]Provvedimenti!G8</f>
-        <v>0</v>
+      <c r="A5" s="1" t="str">
+        <f>IF([1]Provvedimenti!B8=0,"",[1]Provvedimenti!B8=0)</f>
+        <v/>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>IF([1]Provvedimenti!C8=0,"",[1]Provvedimenti!C8=0)</f>
+        <v/>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>IF([1]Provvedimenti!D8=0,"",[1]Provvedimenti!D8=0)</f>
+        <v/>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>IF([1]Provvedimenti!E8=0,"",[1]Provvedimenti!E8=0)</f>
+        <v/>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF([1]Provvedimenti!F8=0,"",[1]Provvedimenti!F8=0)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795B85E-29BD-6D4B-B9F1-CC5F6496CBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDA2167-F4FF-1C4A-8F7D-AB8A6F22C85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -142,11 +142,24 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="5">
-          <cell r="B5"/>
-          <cell r="C5"/>
-          <cell r="D5"/>
-          <cell r="E5"/>
-          <cell r="F5"/>
+          <cell r="B5" t="str">
+            <v>Gr.3</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Ulix1990</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>TLM_Ulix1990</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>10"</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>Contatto con TLM_TheGuarny al primo giro</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="B6"/>
@@ -496,7 +509,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,24 +536,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5=0)</f>
-        <v/>
+        <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
+        <v>Gr.3</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!C5=0)</f>
-        <v/>
+        <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!D5)</f>
+        <v>TLM_Ulix1990</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!D5=0)</f>
-        <v/>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!E5=0)</f>
-        <v/>
+        <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!E5)</f>
+        <v>10"</v>
+      </c>
+      <c r="D2" s="1">
+        <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!F5)</f>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!F5=0)</f>
-        <v/>
+        <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!G5)</f>
+        <v>Contatto con TLM_TheGuarny al primo giro</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDA2167-F4FF-1C4A-8F7D-AB8A6F22C85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D355C-A036-2A41-9C31-00C82262495B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -143,44 +143,23 @@
       <sheetData sheetId="7">
         <row r="5">
           <cell r="B5" t="str">
-            <v>Gr.3</v>
+            <v>Gr.4</v>
           </cell>
           <cell r="C5" t="str">
-            <v>Ulix1990</v>
+            <v>Rupetheking</v>
           </cell>
           <cell r="D5" t="str">
-            <v>TLM_Ulix1990</v>
+            <v xml:space="preserve">Tlm-rupetheking </v>
           </cell>
           <cell r="E5" t="str">
             <v>10"</v>
           </cell>
           <cell r="F5">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="G5" t="str">
-            <v>Contatto con TLM_TheGuarny al primo giro</v>
+            <v>Contatto con TLM_Parenti al 18° giro</v>
           </cell>
-        </row>
-        <row r="6">
-          <cell r="B6"/>
-          <cell r="C6"/>
-          <cell r="D6"/>
-          <cell r="E6"/>
-          <cell r="F6"/>
-        </row>
-        <row r="7">
-          <cell r="B7"/>
-          <cell r="C7"/>
-          <cell r="D7"/>
-          <cell r="E7"/>
-          <cell r="F7"/>
-        </row>
-        <row r="8">
-          <cell r="B8"/>
-          <cell r="C8"/>
-          <cell r="D8"/>
-          <cell r="E8"/>
-          <cell r="F8"/>
         </row>
       </sheetData>
       <sheetData sheetId="8"/>
@@ -537,11 +516,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>Gr.3</v>
+        <v>Gr.4</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!D5)</f>
-        <v>TLM_Ulix1990</v>
+        <v xml:space="preserve">Tlm-rupetheking </v>
       </c>
       <c r="C2" s="1" t="str">
         <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!E5)</f>
@@ -549,11 +528,11 @@
       </c>
       <c r="D2" s="1">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!F5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Contatto con TLM_TheGuarny al primo giro</v>
+        <v>Contatto con TLM_Parenti al 18° giro</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D355C-A036-2A41-9C31-00C82262495B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B43467-B7CC-F346-9F0B-36F0A133CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -142,24 +142,33 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="5">
-          <cell r="B5" t="str">
-            <v>Gr.4</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Rupetheking</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v xml:space="preserve">Tlm-rupetheking </v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>10"</v>
-          </cell>
-          <cell r="F5">
-            <v>5</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Contatto con TLM_Parenti al 18° giro</v>
-          </cell>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+        </row>
+        <row r="6">
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+        </row>
+        <row r="7">
+          <cell r="B7"/>
+          <cell r="C7"/>
+          <cell r="D7"/>
+          <cell r="E7"/>
+          <cell r="F7"/>
+        </row>
+        <row r="8">
+          <cell r="B8"/>
+          <cell r="C8"/>
+          <cell r="D8"/>
+          <cell r="E8"/>
+          <cell r="F8"/>
         </row>
       </sheetData>
       <sheetData sheetId="8"/>
@@ -516,23 +525,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>Gr.4</v>
+        <v/>
       </c>
       <c r="B2" s="1" t="str">
         <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!D5)</f>
-        <v xml:space="preserve">Tlm-rupetheking </v>
+        <v/>
       </c>
       <c r="C2" s="1" t="str">
         <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!E5)</f>
-        <v>10"</v>
-      </c>
-      <c r="D2" s="1">
+        <v/>
+      </c>
+      <c r="D2" s="1" t="str">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!F5)</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Contatto con TLM_Parenti al 18° giro</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B43467-B7CC-F346-9F0B-36F0A133CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E4EE42-431C-124C-BD0F-50340F5F1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -142,12 +142,24 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="5">
-          <cell r="B5"/>
-          <cell r="C5"/>
-          <cell r="D5"/>
-          <cell r="E5"/>
-          <cell r="F5"/>
-          <cell r="G5"/>
+          <cell r="B5" t="str">
+            <v>Gr.3</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>mattebenny</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Benny89</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>DSQ</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>Per non aver fatto il pitstop obbligatorio</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="B6"/>
@@ -525,23 +537,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v/>
+        <v>Gr.3</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!D5)</f>
-        <v/>
+        <v>Benny89</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!E5)</f>
-        <v/>
+        <v>DSQ</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!G5)</f>
-        <v/>
+        <v>Per non aver fatto il pitstop obbligatorio</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E4EE42-431C-124C-BD0F-50340F5F1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE2662-2690-C649-A2D5-9F4998BF53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -143,44 +143,23 @@
       <sheetData sheetId="7">
         <row r="5">
           <cell r="B5" t="str">
-            <v>Gr.3</v>
+            <v>Gr.4</v>
           </cell>
           <cell r="C5" t="str">
-            <v>mattebenny</v>
+            <v>andvea_99</v>
           </cell>
           <cell r="D5" t="str">
-            <v>Benny89</v>
+            <v>TLM_andvea99</v>
           </cell>
           <cell r="E5" t="str">
-            <v>DSQ</v>
+            <v>20'' (10+10)</v>
           </cell>
-          <cell r="F5" t="str">
-            <v>-</v>
+          <cell r="F5">
+            <v>1</v>
           </cell>
           <cell r="G5" t="str">
-            <v>Per non aver fatto il pitstop obbligatorio</v>
+            <v>Per i contatti con Mike e con Tonyroto</v>
           </cell>
-        </row>
-        <row r="6">
-          <cell r="B6"/>
-          <cell r="C6"/>
-          <cell r="D6"/>
-          <cell r="E6"/>
-          <cell r="F6"/>
-        </row>
-        <row r="7">
-          <cell r="B7"/>
-          <cell r="C7"/>
-          <cell r="D7"/>
-          <cell r="E7"/>
-          <cell r="F7"/>
-        </row>
-        <row r="8">
-          <cell r="B8"/>
-          <cell r="C8"/>
-          <cell r="D8"/>
-          <cell r="E8"/>
-          <cell r="F8"/>
         </row>
       </sheetData>
       <sheetData sheetId="8"/>
@@ -509,7 +488,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,23 +516,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>Gr.3</v>
+        <v>Gr.4</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!D5)</f>
-        <v>Benny89</v>
+        <v>TLM_andvea99</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!E5)</f>
-        <v>DSQ</v>
-      </c>
-      <c r="D2" s="1" t="str">
+        <v>20'' (10+10)</v>
+      </c>
+      <c r="D2" s="1">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!F5)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Per non aver fatto il pitstop obbligatorio</v>
+        <v>Per i contatti con Mike e con Tonyroto</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE2662-2690-C649-A2D5-9F4998BF53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3545A0-64CB-AE4A-ACB5-E017529801CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -143,22 +143,22 @@
       <sheetData sheetId="7">
         <row r="5">
           <cell r="B5" t="str">
-            <v>Gr.4</v>
+            <v>Gr.3</v>
           </cell>
           <cell r="C5" t="str">
-            <v>andvea_99</v>
+            <v>TLM_SKIZZO34</v>
           </cell>
           <cell r="D5" t="str">
-            <v>TLM_andvea99</v>
+            <v>TLM_SKIZZO 34</v>
           </cell>
           <cell r="E5" t="str">
-            <v>20'' (10+10)</v>
+            <v>30'' (20+10)</v>
           </cell>
           <cell r="F5">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="G5" t="str">
-            <v>Per i contatti con Mike e con Tonyroto</v>
+            <v>Per i contatti con andvea99</v>
           </cell>
         </row>
       </sheetData>
@@ -516,23 +516,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>Gr.4</v>
+        <v>Gr.3</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!D5)</f>
-        <v>TLM_andvea99</v>
+        <v>TLM_SKIZZO 34</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!E5)</f>
-        <v>20'' (10+10)</v>
+        <v>30'' (20+10)</v>
       </c>
       <c r="D2" s="1">
         <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!F5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Per i contatti con Mike e con Tonyroto</v>
+        <v>Per i contatti con andvea99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/finoalconfineTLM/backend/penalita/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/alltraction/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3545A0-64CB-AE4A-ACB5-E017529801CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A840137-9216-564B-99CB-60AFE189F481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -144,21 +144,6 @@
         <row r="5">
           <cell r="B5" t="str">
             <v>Gr.3</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>TLM_SKIZZO34</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>TLM_SKIZZO 34</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>30'' (20+10)</v>
-          </cell>
-          <cell r="F5">
-            <v>3</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Per i contatti con andvea99</v>
           </cell>
         </row>
       </sheetData>
@@ -488,7 +473,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,26 +499,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="str">
-        <f>IF([1]Provvedimenti!B5=0,"",[1]Provvedimenti!B5)</f>
-        <v>Gr.3</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>IF([1]Provvedimenti!C5=0,"",[1]Provvedimenti!D5)</f>
-        <v>TLM_SKIZZO 34</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>IF([1]Provvedimenti!D5=0,"",[1]Provvedimenti!E5)</f>
-        <v>30'' (20+10)</v>
-      </c>
-      <c r="D2" s="1">
-        <f>IF([1]Provvedimenti!E5=0,"",[1]Provvedimenti!F5)</f>
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>IF([1]Provvedimenti!F5=0,"",[1]Provvedimenti!G5)</f>
-        <v>Per i contatti con andvea99</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/alltraction/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A840137-9216-564B-99CB-60AFE189F481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81305EBD-F0F0-E14D-B020-55E260542014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>posper</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>id_gt7</t>
+  </si>
+  <si>
+    <t>ASC-Jesus17</t>
+  </si>
+  <si>
+    <t>20"</t>
+  </si>
+  <si>
+    <t>N.Baglioni</t>
+  </si>
+  <si>
+    <t>2 contatti con GTRC-X-Gianni (10"+5") ed eccessivi cambi di traiettoria sul rettilineo (5")</t>
+  </si>
+  <si>
+    <t>Contatto con Tonyroto (10") e con Rupetheking (10")</t>
   </si>
 </sst>
 </file>
@@ -473,12 +488,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -499,32 +515,37 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="str">
-        <f>IF([1]Provvedimenti!B6=0,"",[1]Provvedimenti!B6=0)</f>
-        <v/>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f>IF([1]Provvedimenti!C6=0,"",[1]Provvedimenti!C6=0)</f>
-        <v/>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>IF([1]Provvedimenti!D6=0,"",[1]Provvedimenti!D6=0)</f>
-        <v/>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>IF([1]Provvedimenti!E6=0,"",[1]Provvedimenti!E6=0)</f>
-        <v/>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>IF([1]Provvedimenti!F6=0,"",[1]Provvedimenti!F6=0)</f>
-        <v/>
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/alltraction/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81305EBD-F0F0-E14D-B020-55E260542014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168DDE0-5975-484A-B6D2-ACB76B441956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>posper</t>
   </si>
@@ -56,19 +56,22 @@
     <t>id_gt7</t>
   </si>
   <si>
-    <t>ASC-Jesus17</t>
-  </si>
-  <si>
     <t>20"</t>
   </si>
   <si>
-    <t>N.Baglioni</t>
-  </si>
-  <si>
-    <t>2 contatti con GTRC-X-Gianni (10"+5") ed eccessivi cambi di traiettoria sul rettilineo (5")</t>
-  </si>
-  <si>
-    <t>Contatto con Tonyroto (10") e con Rupetheking (10")</t>
+    <t>Daniele</t>
+  </si>
+  <si>
+    <t>Incidente in curva 1 del primo giro</t>
+  </si>
+  <si>
+    <t>TLM_wid83</t>
+  </si>
+  <si>
+    <t>10"</t>
+  </si>
+  <si>
+    <t>(AUTORECLAMO) Incidente alla Roggia</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,33 +522,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/alltraction/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168DDE0-5975-484A-B6D2-ACB76B441956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75761867-8A81-3941-B414-F6372B2756AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="penalita" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>posper</t>
   </si>
@@ -54,24 +51,6 @@
   </si>
   <si>
     <t>id_gt7</t>
-  </si>
-  <si>
-    <t>20"</t>
-  </si>
-  <si>
-    <t>Daniele</t>
-  </si>
-  <si>
-    <t>Incidente in curva 1 del primo giro</t>
-  </si>
-  <si>
-    <t>TLM_wid83</t>
-  </si>
-  <si>
-    <t>10"</t>
-  </si>
-  <si>
-    <t>(AUTORECLAMO) Incidente alla Roggia</t>
   </si>
 </sst>
 </file>
@@ -131,44 +110,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Classifica Generale"/>
-      <sheetName val="nomi"/>
-      <sheetName val="CLASSIFICA ORDINATA"/>
-      <sheetName val="PER STAMPA"/>
-      <sheetName val="RISULTATI"/>
-      <sheetName val="XSRESULTS"/>
-      <sheetName val="LOBBY"/>
-      <sheetName val="Provvedimenti"/>
-      <sheetName val="RISULTATI  GARA 3 "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Gr.3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +432,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,82 +459,32 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="str">
-        <f>IF([1]Provvedimenti!B7=0,"",[1]Provvedimenti!B7=0)</f>
-        <v/>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>IF([1]Provvedimenti!C7=0,"",[1]Provvedimenti!C7=0)</f>
-        <v/>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>IF([1]Provvedimenti!D7=0,"",[1]Provvedimenti!D7=0)</f>
-        <v/>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>IF([1]Provvedimenti!E7=0,"",[1]Provvedimenti!E7=0)</f>
-        <v/>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>IF([1]Provvedimenti!F7=0,"",[1]Provvedimenti!F7=0)</f>
-        <v/>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="str">
-        <f>IF([1]Provvedimenti!B8=0,"",[1]Provvedimenti!B8=0)</f>
-        <v/>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>IF([1]Provvedimenti!C8=0,"",[1]Provvedimenti!C8=0)</f>
-        <v/>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>IF([1]Provvedimenti!D8=0,"",[1]Provvedimenti!D8=0)</f>
-        <v/>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>IF([1]Provvedimenti!E8=0,"",[1]Provvedimenti!E8=0)</f>
-        <v/>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f>IF([1]Provvedimenti!F8=0,"",[1]Provvedimenti!F8=0)</f>
-        <v/>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/alltraction/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75761867-8A81-3941-B414-F6372B2756AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE193F9-E753-5E40-8257-AFE9BA4D3268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>posper</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>id_gt7</t>
+  </si>
+  <si>
+    <t>Polly</t>
+  </si>
+  <si>
+    <t>10"</t>
+  </si>
+  <si>
+    <t>Contatto con Tonyroto</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,11 +468,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>

--- a/backend/penalita/penalita.xlsx
+++ b/backend/penalita/penalita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/alltraction/backend/penalita/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE193F9-E753-5E40-8257-AFE9BA4D3268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1855B930-6759-B140-8F0C-EF1492C2C069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="27160" windowHeight="16440" xr2:uid="{FB9BA2F0-2A65-4D46-8F84-709A705C0AB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>posper</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>id_gt7</t>
-  </si>
-  <si>
-    <t>Polly</t>
-  </si>
-  <si>
-    <t>10"</t>
-  </si>
-  <si>
-    <t>Contatto con Tonyroto</t>
   </si>
 </sst>
 </file>
@@ -441,7 +432,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,21 +459,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
